--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il10-Il10rb.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il10-Il10rb.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.48305634497952</v>
+        <v>1.4838375</v>
       </c>
       <c r="H2">
-        <v>1.48305634497952</v>
+        <v>2.967675</v>
       </c>
       <c r="I2">
-        <v>0.0351960660904881</v>
+        <v>0.03456909213758164</v>
       </c>
       <c r="J2">
-        <v>0.0351960660904881</v>
+        <v>0.0235465844140737</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.4769581892773</v>
+        <v>18.7901345</v>
       </c>
       <c r="N2">
-        <v>18.4769581892773</v>
+        <v>37.580269</v>
       </c>
       <c r="O2">
-        <v>0.0770104910817463</v>
+        <v>0.07754025227090004</v>
       </c>
       <c r="P2">
-        <v>0.0770104910817463</v>
+        <v>0.05342938449953138</v>
       </c>
       <c r="Q2">
-        <v>27.402370078529</v>
+        <v>27.88150620114375</v>
       </c>
       <c r="R2">
-        <v>27.402370078529</v>
+        <v>111.526024804575</v>
       </c>
       <c r="S2">
-        <v>0.002710466333774087</v>
+        <v>0.002680496125124067</v>
       </c>
       <c r="T2">
-        <v>0.002710466333774087</v>
+        <v>0.001258079512310216</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.48305634497952</v>
+        <v>1.4838375</v>
       </c>
       <c r="H3">
-        <v>1.48305634497952</v>
+        <v>2.967675</v>
       </c>
       <c r="I3">
-        <v>0.0351960660904881</v>
+        <v>0.03456909213758164</v>
       </c>
       <c r="J3">
-        <v>0.0351960660904881</v>
+        <v>0.0235465844140737</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.259452254344691</v>
+        <v>8.882901</v>
       </c>
       <c r="N3">
-        <v>8.259452254344691</v>
+        <v>26.648703</v>
       </c>
       <c r="O3">
-        <v>0.03442473959498633</v>
+        <v>0.03665659681347307</v>
       </c>
       <c r="P3">
-        <v>0.03442473959498633</v>
+        <v>0.03788753611638105</v>
       </c>
       <c r="Q3">
-        <v>12.24923307186129</v>
+        <v>13.1807816125875</v>
       </c>
       <c r="R3">
-        <v>12.24923307186129</v>
+        <v>79.084689675525</v>
       </c>
       <c r="S3">
-        <v>0.001211615409932981</v>
+        <v>0.001267185272695132</v>
       </c>
       <c r="T3">
-        <v>0.001211615409932981</v>
+        <v>0.0008921220674056324</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.48305634497952</v>
+        <v>1.4838375</v>
       </c>
       <c r="H4">
-        <v>1.48305634497952</v>
+        <v>2.967675</v>
       </c>
       <c r="I4">
-        <v>0.0351960660904881</v>
+        <v>0.03456909213758164</v>
       </c>
       <c r="J4">
-        <v>0.0351960660904881</v>
+        <v>0.0235465844140737</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>97.2063925923875</v>
+        <v>97.48795299999999</v>
       </c>
       <c r="N4">
-        <v>97.2063925923875</v>
+        <v>292.463859</v>
       </c>
       <c r="O4">
-        <v>0.4051485072997066</v>
+        <v>0.4022983693381038</v>
       </c>
       <c r="P4">
-        <v>0.4051485072997066</v>
+        <v>0.4158076669096681</v>
       </c>
       <c r="Q4">
-        <v>144.1625573067105</v>
+        <v>144.6562804596375</v>
       </c>
       <c r="R4">
-        <v>144.1625573067105</v>
+        <v>867.9376827578249</v>
       </c>
       <c r="S4">
-        <v>0.01425963363938307</v>
+        <v>0.01390708939644776</v>
       </c>
       <c r="T4">
-        <v>0.01425963363938307</v>
+        <v>0.009790850328907539</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.48305634497952</v>
+        <v>1.4838375</v>
       </c>
       <c r="H5">
-        <v>1.48305634497952</v>
+        <v>2.967675</v>
       </c>
       <c r="I5">
-        <v>0.0351960660904881</v>
+        <v>0.03456909213758164</v>
       </c>
       <c r="J5">
-        <v>0.0351960660904881</v>
+        <v>0.0235465844140737</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>97.9826461691168</v>
+        <v>98.89626533333335</v>
       </c>
       <c r="N5">
-        <v>97.9826461691168</v>
+        <v>296.688796</v>
       </c>
       <c r="O5">
-        <v>0.4083838704225488</v>
+        <v>0.4081099772115274</v>
       </c>
       <c r="P5">
-        <v>0.4083838704225488</v>
+        <v>0.4218144302848664</v>
       </c>
       <c r="Q5">
-        <v>145.3137850989919</v>
+        <v>146.74598711155</v>
       </c>
       <c r="R5">
-        <v>145.3137850989919</v>
+        <v>880.4759226693001</v>
       </c>
       <c r="S5">
-        <v>0.01437350569368136</v>
+        <v>0.01410799140449163</v>
       </c>
       <c r="T5">
-        <v>0.01437350569368136</v>
+        <v>0.009932289089777013</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.48305634497952</v>
+        <v>1.4838375</v>
       </c>
       <c r="H6">
-        <v>1.48305634497952</v>
+        <v>2.967675</v>
       </c>
       <c r="I6">
-        <v>0.0351960660904881</v>
+        <v>0.03456909213758164</v>
       </c>
       <c r="J6">
-        <v>0.0351960660904881</v>
+        <v>0.0235465844140737</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.2106180040023</v>
+        <v>13.441221</v>
       </c>
       <c r="N6">
-        <v>13.2106180040023</v>
+        <v>40.323663</v>
       </c>
       <c r="O6">
-        <v>0.05506080435750386</v>
+        <v>0.05546717439244084</v>
       </c>
       <c r="P6">
-        <v>0.05506080435750386</v>
+        <v>0.05732977842326053</v>
       </c>
       <c r="Q6">
-        <v>19.59209085193629</v>
+        <v>19.9445877655875</v>
       </c>
       <c r="R6">
-        <v>19.59209085193629</v>
+        <v>119.667526593525</v>
       </c>
       <c r="S6">
-        <v>0.001937923709162141</v>
+        <v>0.001917449862183596</v>
       </c>
       <c r="T6">
-        <v>0.001937923709162141</v>
+        <v>0.001349920467083445</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.48305634497952</v>
+        <v>1.4838375</v>
       </c>
       <c r="H7">
-        <v>1.48305634497952</v>
+        <v>2.967675</v>
       </c>
       <c r="I7">
-        <v>0.0351960660904881</v>
+        <v>0.03456909213758164</v>
       </c>
       <c r="J7">
-        <v>0.0351960660904881</v>
+        <v>0.0235465844140737</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.7917391161692</v>
+        <v>4.8290125</v>
       </c>
       <c r="N7">
-        <v>4.7917391161692</v>
+        <v>9.658025</v>
       </c>
       <c r="O7">
-        <v>0.0199715872435081</v>
+        <v>0.01992762997355499</v>
       </c>
       <c r="P7">
-        <v>0.0199715872435081</v>
+        <v>0.01373120376629253</v>
       </c>
       <c r="Q7">
-        <v>7.10641909972129</v>
+        <v>7.16546983546875</v>
       </c>
       <c r="R7">
-        <v>7.10641909972129</v>
+        <v>28.661879341875</v>
       </c>
       <c r="S7">
-        <v>0.0007029213045544602</v>
+        <v>0.000688880076639456</v>
       </c>
       <c r="T7">
-        <v>0.0007029213045544602</v>
+        <v>0.0003233229485898538</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.79599918485837</v>
+        <v>3.094223666666667</v>
       </c>
       <c r="H8">
-        <v>2.79599918485837</v>
+        <v>9.282671000000001</v>
       </c>
       <c r="I8">
-        <v>0.06635497864417619</v>
+        <v>0.07208639964098879</v>
       </c>
       <c r="J8">
-        <v>0.06635497864417619</v>
+        <v>0.07365199905298725</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.4769581892773</v>
+        <v>18.7901345</v>
       </c>
       <c r="N8">
-        <v>18.4769581892773</v>
+        <v>37.580269</v>
       </c>
       <c r="O8">
-        <v>0.0770104910817463</v>
+        <v>0.07754025227090004</v>
       </c>
       <c r="P8">
-        <v>0.0770104910817463</v>
+        <v>0.05342938449953138</v>
       </c>
       <c r="Q8">
-        <v>51.66156003588152</v>
+        <v>58.14087886974983</v>
       </c>
       <c r="R8">
-        <v>51.66156003588152</v>
+        <v>348.845273218499</v>
       </c>
       <c r="S8">
-        <v>0.005110029491106797</v>
+        <v>0.005589597613463189</v>
       </c>
       <c r="T8">
-        <v>0.005110029491106797</v>
+        <v>0.003935180976561176</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.79599918485837</v>
+        <v>3.094223666666667</v>
       </c>
       <c r="H9">
-        <v>2.79599918485837</v>
+        <v>9.282671000000001</v>
       </c>
       <c r="I9">
-        <v>0.06635497864417619</v>
+        <v>0.07208639964098879</v>
       </c>
       <c r="J9">
-        <v>0.06635497864417619</v>
+        <v>0.07365199905298725</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.259452254344691</v>
+        <v>8.882901</v>
       </c>
       <c r="N9">
-        <v>8.259452254344691</v>
+        <v>26.648703</v>
       </c>
       <c r="O9">
-        <v>0.03442473959498633</v>
+        <v>0.03665659681347307</v>
       </c>
       <c r="P9">
-        <v>0.03442473959498633</v>
+        <v>0.03788753611638105</v>
       </c>
       <c r="Q9">
-        <v>23.09342177052438</v>
+        <v>27.485682502857</v>
       </c>
       <c r="R9">
-        <v>23.09342177052438</v>
+        <v>247.371142525713</v>
       </c>
       <c r="S9">
-        <v>0.002284252860656645</v>
+        <v>0.002642442087374615</v>
       </c>
       <c r="T9">
-        <v>0.002284252860656645</v>
+        <v>0.002790492774163717</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.79599918485837</v>
+        <v>3.094223666666667</v>
       </c>
       <c r="H10">
-        <v>2.79599918485837</v>
+        <v>9.282671000000001</v>
       </c>
       <c r="I10">
-        <v>0.06635497864417619</v>
+        <v>0.07208639964098879</v>
       </c>
       <c r="J10">
-        <v>0.06635497864417619</v>
+        <v>0.07365199905298725</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>97.2063925923875</v>
+        <v>97.48795299999999</v>
       </c>
       <c r="N10">
-        <v>97.2063925923875</v>
+        <v>292.463859</v>
       </c>
       <c r="O10">
-        <v>0.4051485072997066</v>
+        <v>0.4022983693381038</v>
       </c>
       <c r="P10">
-        <v>0.4051485072997066</v>
+        <v>0.4158076669096681</v>
       </c>
       <c r="Q10">
-        <v>271.7889944513382</v>
+        <v>301.6495313874876</v>
       </c>
       <c r="R10">
-        <v>271.7889944513382</v>
+        <v>2714.845782487389</v>
       </c>
       <c r="S10">
-        <v>0.02688362054959189</v>
+        <v>0.02900024102702466</v>
       </c>
       <c r="T10">
-        <v>0.02688362054959189</v>
+        <v>0.03062506588945571</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.79599918485837</v>
+        <v>3.094223666666667</v>
       </c>
       <c r="H11">
-        <v>2.79599918485837</v>
+        <v>9.282671000000001</v>
       </c>
       <c r="I11">
-        <v>0.06635497864417619</v>
+        <v>0.07208639964098879</v>
       </c>
       <c r="J11">
-        <v>0.06635497864417619</v>
+        <v>0.07365199905298725</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>97.9826461691168</v>
+        <v>98.89626533333335</v>
       </c>
       <c r="N11">
-        <v>97.9826461691168</v>
+        <v>296.688796</v>
       </c>
       <c r="O11">
-        <v>0.4083838704225488</v>
+        <v>0.4081099772115274</v>
       </c>
       <c r="P11">
-        <v>0.4083838704225488</v>
+        <v>0.4218144302848664</v>
       </c>
       <c r="Q11">
-        <v>273.9593988191167</v>
+        <v>306.0071647393463</v>
       </c>
       <c r="R11">
-        <v>273.9593988191167</v>
+        <v>2754.064482654117</v>
       </c>
       <c r="S11">
-        <v>0.02709830300051425</v>
+        <v>0.02941917891474499</v>
       </c>
       <c r="T11">
-        <v>0.02709830300051425</v>
+        <v>0.03106747601987734</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.79599918485837</v>
+        <v>3.094223666666667</v>
       </c>
       <c r="H12">
-        <v>2.79599918485837</v>
+        <v>9.282671000000001</v>
       </c>
       <c r="I12">
-        <v>0.06635497864417619</v>
+        <v>0.07208639964098879</v>
       </c>
       <c r="J12">
-        <v>0.06635497864417619</v>
+        <v>0.07365199905298725</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.2106180040023</v>
+        <v>13.441221</v>
       </c>
       <c r="N12">
-        <v>13.2106180040023</v>
+        <v>40.323663</v>
       </c>
       <c r="O12">
-        <v>0.05506080435750386</v>
+        <v>0.05546717439244084</v>
       </c>
       <c r="P12">
-        <v>0.05506080435750386</v>
+        <v>0.05732977842326053</v>
       </c>
       <c r="Q12">
-        <v>36.93687717066574</v>
+        <v>41.590144127097</v>
       </c>
       <c r="R12">
-        <v>36.93687717066574</v>
+        <v>374.311297143873</v>
       </c>
       <c r="S12">
-        <v>0.003653558497273332</v>
+        <v>0.00399842890020991</v>
       </c>
       <c r="T12">
-        <v>0.003653558497273332</v>
+        <v>0.004222452786137953</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.79599918485837</v>
+        <v>3.094223666666667</v>
       </c>
       <c r="H13">
-        <v>2.79599918485837</v>
+        <v>9.282671000000001</v>
       </c>
       <c r="I13">
-        <v>0.06635497864417619</v>
+        <v>0.07208639964098879</v>
       </c>
       <c r="J13">
-        <v>0.06635497864417619</v>
+        <v>0.07365199905298725</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.7917391161692</v>
+        <v>4.8290125</v>
       </c>
       <c r="N13">
-        <v>4.7917391161692</v>
+        <v>9.658025</v>
       </c>
       <c r="O13">
-        <v>0.0199715872435081</v>
+        <v>0.01992762997355499</v>
       </c>
       <c r="P13">
-        <v>0.0199715872435081</v>
+        <v>0.01373120376629253</v>
       </c>
       <c r="Q13">
-        <v>13.39769866286305</v>
+        <v>14.94204476412917</v>
       </c>
       <c r="R13">
-        <v>13.39769866286305</v>
+        <v>89.652268584775</v>
       </c>
       <c r="S13">
-        <v>0.001325214245033282</v>
+        <v>0.001436511098171432</v>
       </c>
       <c r="T13">
-        <v>0.001325214245033282</v>
+        <v>0.001011330606791353</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.492997818269</v>
+        <v>18.74820166666666</v>
       </c>
       <c r="H14">
-        <v>18.492997818269</v>
+        <v>56.24460499999999</v>
       </c>
       <c r="I14">
-        <v>0.4388779803454037</v>
+        <v>0.4367784955084109</v>
       </c>
       <c r="J14">
-        <v>0.4388779803454037</v>
+        <v>0.4462646143761468</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.4769581892773</v>
+        <v>18.7901345</v>
       </c>
       <c r="N14">
-        <v>18.4769581892773</v>
+        <v>37.580269</v>
       </c>
       <c r="O14">
-        <v>0.0770104910817463</v>
+        <v>0.07754025227090004</v>
       </c>
       <c r="P14">
-        <v>0.0770104910817463</v>
+        <v>0.05342938449953138</v>
       </c>
       <c r="Q14">
-        <v>341.6943474825526</v>
+        <v>352.2812309497908</v>
       </c>
       <c r="R14">
-        <v>341.6943474825526</v>
+        <v>2113.687385698745</v>
       </c>
       <c r="S14">
-        <v>0.03379820879136454</v>
+        <v>0.03386791472822636</v>
       </c>
       <c r="T14">
-        <v>0.03379820879136454</v>
+        <v>0.02384364367003824</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.492997818269</v>
+        <v>18.74820166666666</v>
       </c>
       <c r="H15">
-        <v>18.492997818269</v>
+        <v>56.24460499999999</v>
       </c>
       <c r="I15">
-        <v>0.4388779803454037</v>
+        <v>0.4367784955084109</v>
       </c>
       <c r="J15">
-        <v>0.4388779803454037</v>
+        <v>0.4462646143761468</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.259452254344691</v>
+        <v>8.882901</v>
       </c>
       <c r="N15">
-        <v>8.259452254344691</v>
+        <v>26.648703</v>
       </c>
       <c r="O15">
-        <v>0.03442473959498633</v>
+        <v>0.03665659681347307</v>
       </c>
       <c r="P15">
-        <v>0.03442473959498633</v>
+        <v>0.03788753611638105</v>
       </c>
       <c r="Q15">
-        <v>152.7420325196933</v>
+        <v>166.538419333035</v>
       </c>
       <c r="R15">
-        <v>152.7420325196933</v>
+        <v>1498.845773997315</v>
       </c>
       <c r="S15">
-        <v>0.01510826018736405</v>
+        <v>0.01601081320664717</v>
       </c>
       <c r="T15">
-        <v>0.01510826018736405</v>
+        <v>0.01690786669463912</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.492997818269</v>
+        <v>18.74820166666666</v>
       </c>
       <c r="H16">
-        <v>18.492997818269</v>
+        <v>56.24460499999999</v>
       </c>
       <c r="I16">
-        <v>0.4388779803454037</v>
+        <v>0.4367784955084109</v>
       </c>
       <c r="J16">
-        <v>0.4388779803454037</v>
+        <v>0.4462646143761468</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>97.2063925923875</v>
+        <v>97.48795299999999</v>
       </c>
       <c r="N16">
-        <v>97.2063925923875</v>
+        <v>292.463859</v>
       </c>
       <c r="O16">
-        <v>0.4051485072997066</v>
+        <v>0.4022983693381038</v>
       </c>
       <c r="P16">
-        <v>0.4051485072997066</v>
+        <v>0.4158076669096681</v>
       </c>
       <c r="Q16">
-        <v>1797.637606132822</v>
+        <v>1827.723802914521</v>
       </c>
       <c r="R16">
-        <v>1797.637606132822</v>
+        <v>16449.51422623069</v>
       </c>
       <c r="S16">
-        <v>0.1778107586236503</v>
+        <v>0.175715276504984</v>
       </c>
       <c r="T16">
-        <v>0.1778107586236503</v>
+        <v>0.1855602481280883</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.492997818269</v>
+        <v>18.74820166666666</v>
       </c>
       <c r="H17">
-        <v>18.492997818269</v>
+        <v>56.24460499999999</v>
       </c>
       <c r="I17">
-        <v>0.4388779803454037</v>
+        <v>0.4367784955084109</v>
       </c>
       <c r="J17">
-        <v>0.4388779803454037</v>
+        <v>0.4462646143761468</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>97.9826461691168</v>
+        <v>98.89626533333335</v>
       </c>
       <c r="N17">
-        <v>97.9826461691168</v>
+        <v>296.688796</v>
       </c>
       <c r="O17">
-        <v>0.4083838704225488</v>
+        <v>0.4081099772115274</v>
       </c>
       <c r="P17">
-        <v>0.4083838704225488</v>
+        <v>0.4218144302848664</v>
       </c>
       <c r="Q17">
-        <v>1811.992861833701</v>
+        <v>1854.127126549509</v>
       </c>
       <c r="R17">
-        <v>1811.992861833701</v>
+        <v>16687.14413894558</v>
       </c>
       <c r="S17">
-        <v>0.1792306882566873</v>
+        <v>0.1782536618484228</v>
       </c>
       <c r="T17">
-        <v>0.1792306882566873</v>
+        <v>0.18824085406937</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.492997818269</v>
+        <v>18.74820166666666</v>
       </c>
       <c r="H18">
-        <v>18.492997818269</v>
+        <v>56.24460499999999</v>
       </c>
       <c r="I18">
-        <v>0.4388779803454037</v>
+        <v>0.4367784955084109</v>
       </c>
       <c r="J18">
-        <v>0.4388779803454037</v>
+        <v>0.4462646143761468</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>13.2106180040023</v>
+        <v>13.441221</v>
       </c>
       <c r="N18">
-        <v>13.2106180040023</v>
+        <v>40.323663</v>
       </c>
       <c r="O18">
-        <v>0.05506080435750386</v>
+        <v>0.05546717439244084</v>
       </c>
       <c r="P18">
-        <v>0.05506080435750386</v>
+        <v>0.05732977842326053</v>
       </c>
       <c r="Q18">
-        <v>244.3039299259997</v>
+        <v>251.9987219542349</v>
       </c>
       <c r="R18">
-        <v>244.3039299259997</v>
+        <v>2267.988497588115</v>
       </c>
       <c r="S18">
-        <v>0.0241649746126147</v>
+        <v>0.02422686898123297</v>
       </c>
       <c r="T18">
-        <v>0.0241649746126147</v>
+        <v>0.0255842514603263</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.492997818269</v>
+        <v>18.74820166666666</v>
       </c>
       <c r="H19">
-        <v>18.492997818269</v>
+        <v>56.24460499999999</v>
       </c>
       <c r="I19">
-        <v>0.4388779803454037</v>
+        <v>0.4367784955084109</v>
       </c>
       <c r="J19">
-        <v>0.4388779803454037</v>
+        <v>0.4462646143761468</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.7917391161692</v>
+        <v>4.8290125</v>
       </c>
       <c r="N19">
-        <v>4.7917391161692</v>
+        <v>9.658025</v>
       </c>
       <c r="O19">
-        <v>0.0199715872435081</v>
+        <v>0.01992762997355499</v>
       </c>
       <c r="P19">
-        <v>0.0199715872435081</v>
+        <v>0.01373120376629253</v>
       </c>
       <c r="Q19">
-        <v>88.61362102103125</v>
+        <v>90.53530020085415</v>
       </c>
       <c r="R19">
-        <v>88.61362102103125</v>
+        <v>543.211801205125</v>
       </c>
       <c r="S19">
-        <v>0.008765089873722863</v>
+        <v>0.008703960238897661</v>
       </c>
       <c r="T19">
-        <v>0.008765089873722863</v>
+        <v>0.006127750353684831</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.0552542773413</v>
+        <v>17.26277166666667</v>
       </c>
       <c r="H20">
-        <v>17.0552542773413</v>
+        <v>51.788315</v>
       </c>
       <c r="I20">
-        <v>0.4047572830037511</v>
+        <v>0.4021723027589165</v>
       </c>
       <c r="J20">
-        <v>0.4047572830037511</v>
+        <v>0.4109068313781459</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>18.4769581892773</v>
+        <v>18.7901345</v>
       </c>
       <c r="N20">
-        <v>18.4769581892773</v>
+        <v>37.580269</v>
       </c>
       <c r="O20">
-        <v>0.0770104910817463</v>
+        <v>0.07754025227090004</v>
       </c>
       <c r="P20">
-        <v>0.0770104910817463</v>
+        <v>0.05342938449953138</v>
       </c>
       <c r="Q20">
-        <v>315.1292201899281</v>
+        <v>324.3698014594558</v>
       </c>
       <c r="R20">
-        <v>315.1292201899281</v>
+        <v>1946.218808756735</v>
       </c>
       <c r="S20">
-        <v>0.03117055713303224</v>
+        <v>0.03118454181229517</v>
       </c>
       <c r="T20">
-        <v>0.03117055713303224</v>
+        <v>0.02195449908718706</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.0552542773413</v>
+        <v>17.26277166666667</v>
       </c>
       <c r="H21">
-        <v>17.0552542773413</v>
+        <v>51.788315</v>
       </c>
       <c r="I21">
-        <v>0.4047572830037511</v>
+        <v>0.4021723027589165</v>
       </c>
       <c r="J21">
-        <v>0.4047572830037511</v>
+        <v>0.4109068313781459</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.259452254344691</v>
+        <v>8.882901</v>
       </c>
       <c r="N21">
-        <v>8.259452254344691</v>
+        <v>26.648703</v>
       </c>
       <c r="O21">
-        <v>0.03442473959498633</v>
+        <v>0.03665659681347307</v>
       </c>
       <c r="P21">
-        <v>0.03442473959498633</v>
+        <v>0.03788753611638105</v>
       </c>
       <c r="Q21">
-        <v>140.8670583894086</v>
+        <v>153.343491700605</v>
       </c>
       <c r="R21">
-        <v>140.8670583894086</v>
+        <v>1380.091425305445</v>
       </c>
       <c r="S21">
-        <v>0.01393366406657832</v>
+        <v>0.01474226795177962</v>
       </c>
       <c r="T21">
-        <v>0.01393366406657832</v>
+        <v>0.0155682474143072</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.0552542773413</v>
+        <v>17.26277166666667</v>
       </c>
       <c r="H22">
-        <v>17.0552542773413</v>
+        <v>51.788315</v>
       </c>
       <c r="I22">
-        <v>0.4047572830037511</v>
+        <v>0.4021723027589165</v>
       </c>
       <c r="J22">
-        <v>0.4047572830037511</v>
+        <v>0.4109068313781459</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>97.2063925923875</v>
+        <v>97.48795299999999</v>
       </c>
       <c r="N22">
-        <v>97.2063925923875</v>
+        <v>292.463859</v>
       </c>
       <c r="O22">
-        <v>0.4051485072997066</v>
+        <v>0.4022983693381038</v>
       </c>
       <c r="P22">
-        <v>0.4051485072997066</v>
+        <v>0.4158076669096681</v>
       </c>
       <c r="Q22">
-        <v>1657.879743046235</v>
+        <v>1682.912272889731</v>
       </c>
       <c r="R22">
-        <v>1657.879743046235</v>
+        <v>15146.21045600758</v>
       </c>
       <c r="S22">
-        <v>0.1639868090276547</v>
+        <v>0.1617932615928623</v>
       </c>
       <c r="T22">
-        <v>0.1639868090276547</v>
+        <v>0.1708582108725913</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.0552542773413</v>
+        <v>17.26277166666667</v>
       </c>
       <c r="H23">
-        <v>17.0552542773413</v>
+        <v>51.788315</v>
       </c>
       <c r="I23">
-        <v>0.4047572830037511</v>
+        <v>0.4021723027589165</v>
       </c>
       <c r="J23">
-        <v>0.4047572830037511</v>
+        <v>0.4109068313781459</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>97.9826461691168</v>
+        <v>98.89626533333335</v>
       </c>
       <c r="N23">
-        <v>97.9826461691168</v>
+        <v>296.688796</v>
       </c>
       <c r="O23">
-        <v>0.4083838704225488</v>
+        <v>0.4081099772115274</v>
       </c>
       <c r="P23">
-        <v>0.4083838704225488</v>
+        <v>0.4218144302848664</v>
       </c>
       <c r="Q23">
-        <v>1671.118945181049</v>
+        <v>1707.223647135416</v>
       </c>
       <c r="R23">
-        <v>1671.118945181049</v>
+        <v>15365.01282421874</v>
       </c>
       <c r="S23">
-        <v>0.1652963458147868</v>
+        <v>0.1641305293140489</v>
       </c>
       <c r="T23">
-        <v>0.1652963458147868</v>
+        <v>0.1733264309779323</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.0552542773413</v>
+        <v>17.26277166666667</v>
       </c>
       <c r="H24">
-        <v>17.0552542773413</v>
+        <v>51.788315</v>
       </c>
       <c r="I24">
-        <v>0.4047572830037511</v>
+        <v>0.4021723027589165</v>
       </c>
       <c r="J24">
-        <v>0.4047572830037511</v>
+        <v>0.4109068313781459</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>13.2106180040023</v>
+        <v>13.441221</v>
       </c>
       <c r="N24">
-        <v>13.2106180040023</v>
+        <v>40.323663</v>
       </c>
       <c r="O24">
-        <v>0.05506080435750386</v>
+        <v>0.05546717439244084</v>
       </c>
       <c r="P24">
-        <v>0.05506080435750386</v>
+        <v>0.05732977842326053</v>
       </c>
       <c r="Q24">
-        <v>225.3104492190822</v>
+        <v>232.032729044205</v>
       </c>
       <c r="R24">
-        <v>225.3104492190822</v>
+        <v>2088.294561397845</v>
       </c>
       <c r="S24">
-        <v>0.02228626157174436</v>
+        <v>0.02230736125293834</v>
       </c>
       <c r="T24">
-        <v>0.02228626157174436</v>
+        <v>0.02355719759551318</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.0552542773413</v>
+        <v>17.26277166666667</v>
       </c>
       <c r="H25">
-        <v>17.0552542773413</v>
+        <v>51.788315</v>
       </c>
       <c r="I25">
-        <v>0.4047572830037511</v>
+        <v>0.4021723027589165</v>
       </c>
       <c r="J25">
-        <v>0.4047572830037511</v>
+        <v>0.4109068313781459</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.7917391161692</v>
+        <v>4.8290125</v>
       </c>
       <c r="N25">
-        <v>4.7917391161692</v>
+        <v>9.658025</v>
       </c>
       <c r="O25">
-        <v>0.0199715872435081</v>
+        <v>0.01992762997355499</v>
       </c>
       <c r="P25">
-        <v>0.0199715872435081</v>
+        <v>0.01373120376629253</v>
       </c>
       <c r="Q25">
-        <v>81.72432905694838</v>
+        <v>83.36214016297916</v>
       </c>
       <c r="R25">
-        <v>81.72432905694838</v>
+        <v>500.172840977875</v>
       </c>
       <c r="S25">
-        <v>0.008083645389954715</v>
+        <v>0.008014340834992216</v>
       </c>
       <c r="T25">
-        <v>0.008083645389954715</v>
+        <v>0.005642245430614927</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.06819889108717</v>
+        <v>1.081365333333333</v>
       </c>
       <c r="H26">
-        <v>1.06819889108717</v>
+        <v>3.244096</v>
       </c>
       <c r="I26">
-        <v>0.02535062062595425</v>
+        <v>0.02519266283699306</v>
       </c>
       <c r="J26">
-        <v>0.02535062062595425</v>
+        <v>0.02573980651902881</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>18.4769581892773</v>
+        <v>18.7901345</v>
       </c>
       <c r="N26">
-        <v>18.4769581892773</v>
+        <v>37.580269</v>
       </c>
       <c r="O26">
-        <v>0.0770104910817463</v>
+        <v>0.07754025227090004</v>
       </c>
       <c r="P26">
-        <v>0.0770104910817463</v>
+        <v>0.05342938449953138</v>
       </c>
       <c r="Q26">
-        <v>19.73706624845002</v>
+        <v>20.31900005697067</v>
       </c>
       <c r="R26">
-        <v>19.73706624845002</v>
+        <v>121.914000341824</v>
       </c>
       <c r="S26">
-        <v>0.001952263743631783</v>
+        <v>0.00195344543175617</v>
       </c>
       <c r="T26">
-        <v>0.001952263743631783</v>
+        <v>0.001375262019448735</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.06819889108717</v>
+        <v>1.081365333333333</v>
       </c>
       <c r="H27">
-        <v>1.06819889108717</v>
+        <v>3.244096</v>
       </c>
       <c r="I27">
-        <v>0.02535062062595425</v>
+        <v>0.02519266283699306</v>
       </c>
       <c r="J27">
-        <v>0.02535062062595425</v>
+        <v>0.02573980651902881</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>8.259452254344691</v>
+        <v>8.882901</v>
       </c>
       <c r="N27">
-        <v>8.259452254344691</v>
+        <v>26.648703</v>
       </c>
       <c r="O27">
-        <v>0.03442473959498633</v>
+        <v>0.03665659681347307</v>
       </c>
       <c r="P27">
-        <v>0.03442473959498633</v>
+        <v>0.03788753611638105</v>
       </c>
       <c r="Q27">
-        <v>8.822737739078425</v>
+        <v>9.605661200831999</v>
       </c>
       <c r="R27">
-        <v>8.822737739078425</v>
+        <v>86.450950807488</v>
       </c>
       <c r="S27">
-        <v>0.0008726885136197643</v>
+        <v>0.000923477284273421</v>
       </c>
       <c r="T27">
-        <v>0.0008726885136197643</v>
+        <v>0.0009752178491183644</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.06819889108717</v>
+        <v>1.081365333333333</v>
       </c>
       <c r="H28">
-        <v>1.06819889108717</v>
+        <v>3.244096</v>
       </c>
       <c r="I28">
-        <v>0.02535062062595425</v>
+        <v>0.02519266283699306</v>
       </c>
       <c r="J28">
-        <v>0.02535062062595425</v>
+        <v>0.02573980651902881</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>97.2063925923875</v>
+        <v>97.48795299999999</v>
       </c>
       <c r="N28">
-        <v>97.2063925923875</v>
+        <v>292.463859</v>
       </c>
       <c r="O28">
-        <v>0.4051485072997066</v>
+        <v>0.4022983693381038</v>
       </c>
       <c r="P28">
-        <v>0.4051485072997066</v>
+        <v>0.4158076669096681</v>
       </c>
       <c r="Q28">
-        <v>103.8357607737724</v>
+        <v>105.4200927918293</v>
       </c>
       <c r="R28">
-        <v>103.8357607737724</v>
+        <v>948.7808351264638</v>
       </c>
       <c r="S28">
-        <v>0.01027076610572652</v>
+        <v>0.01013496717860695</v>
       </c>
       <c r="T28">
-        <v>0.01027076610572652</v>
+        <v>0.01070280889538364</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.06819889108717</v>
+        <v>1.081365333333333</v>
       </c>
       <c r="H29">
-        <v>1.06819889108717</v>
+        <v>3.244096</v>
       </c>
       <c r="I29">
-        <v>0.02535062062595425</v>
+        <v>0.02519266283699306</v>
       </c>
       <c r="J29">
-        <v>0.02535062062595425</v>
+        <v>0.02573980651902881</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>97.9826461691168</v>
+        <v>98.89626533333335</v>
       </c>
       <c r="N29">
-        <v>97.9826461691168</v>
+        <v>296.688796</v>
       </c>
       <c r="O29">
-        <v>0.4083838704225488</v>
+        <v>0.4081099772115274</v>
       </c>
       <c r="P29">
-        <v>0.4083838704225488</v>
+        <v>0.4218144302848664</v>
       </c>
       <c r="Q29">
-        <v>104.6649539836371</v>
+        <v>106.9429929276018</v>
       </c>
       <c r="R29">
-        <v>104.6649539836371</v>
+        <v>962.4869363484161</v>
       </c>
       <c r="S29">
-        <v>0.01035278456884089</v>
+        <v>0.01028137705630293</v>
       </c>
       <c r="T29">
-        <v>0.01035278456884089</v>
+        <v>0.01085742182246683</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.06819889108717</v>
+        <v>1.081365333333333</v>
       </c>
       <c r="H30">
-        <v>1.06819889108717</v>
+        <v>3.244096</v>
       </c>
       <c r="I30">
-        <v>0.02535062062595425</v>
+        <v>0.02519266283699306</v>
       </c>
       <c r="J30">
-        <v>0.02535062062595425</v>
+        <v>0.02573980651902881</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>13.2106180040023</v>
+        <v>13.441221</v>
       </c>
       <c r="N30">
-        <v>13.2106180040023</v>
+        <v>40.323663</v>
       </c>
       <c r="O30">
-        <v>0.05506080435750386</v>
+        <v>0.05546717439244084</v>
       </c>
       <c r="P30">
-        <v>0.05506080435750386</v>
+        <v>0.05732977842326053</v>
       </c>
       <c r="Q30">
-        <v>14.11156750245146</v>
+        <v>14.534870427072</v>
       </c>
       <c r="R30">
-        <v>14.11156750245146</v>
+        <v>130.813833843648</v>
       </c>
       <c r="S30">
-        <v>0.001395825562626969</v>
+        <v>0.001397365822989457</v>
       </c>
       <c r="T30">
-        <v>0.001395825562626969</v>
+        <v>0.001475657404393518</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.06819889108717</v>
+        <v>1.081365333333333</v>
       </c>
       <c r="H31">
-        <v>1.06819889108717</v>
+        <v>3.244096</v>
       </c>
       <c r="I31">
-        <v>0.02535062062595425</v>
+        <v>0.02519266283699306</v>
       </c>
       <c r="J31">
-        <v>0.02535062062595425</v>
+        <v>0.02573980651902881</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.7917391161692</v>
+        <v>4.8290125</v>
       </c>
       <c r="N31">
-        <v>4.7917391161692</v>
+        <v>9.658025</v>
       </c>
       <c r="O31">
-        <v>0.0199715872435081</v>
+        <v>0.01992762997355499</v>
       </c>
       <c r="P31">
-        <v>0.0199715872435081</v>
+        <v>0.01373120376629253</v>
       </c>
       <c r="Q31">
-        <v>5.118530410270956</v>
+        <v>5.221926711733333</v>
       </c>
       <c r="R31">
-        <v>5.118530410270956</v>
+        <v>31.3315602704</v>
       </c>
       <c r="S31">
-        <v>0.0005062921315083213</v>
+        <v>0.0005020300630641277</v>
       </c>
       <c r="T31">
-        <v>0.0005062921315083213</v>
+        <v>0.0003534385282177295</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.24148519062371</v>
+        <v>1.2534205</v>
       </c>
       <c r="H32">
-        <v>1.24148519062371</v>
+        <v>2.506841</v>
       </c>
       <c r="I32">
-        <v>0.02946307129022649</v>
+        <v>0.02920104711710928</v>
       </c>
       <c r="J32">
-        <v>0.02946307129022649</v>
+        <v>0.01989016425961769</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>18.4769581892773</v>
+        <v>18.7901345</v>
       </c>
       <c r="N32">
-        <v>18.4769581892773</v>
+        <v>37.580269</v>
       </c>
       <c r="O32">
-        <v>0.0770104910817463</v>
+        <v>0.07754025227090004</v>
       </c>
       <c r="P32">
-        <v>0.0770104910817463</v>
+        <v>0.05342938449953138</v>
       </c>
       <c r="Q32">
-        <v>22.93886995976125</v>
+        <v>23.55193978005725</v>
       </c>
       <c r="R32">
-        <v>22.93886995976125</v>
+        <v>94.20775912022901</v>
       </c>
       <c r="S32">
-        <v>0.002268965588836843</v>
+        <v>0.002264256560035092</v>
       </c>
       <c r="T32">
-        <v>0.002268965588836843</v>
+        <v>0.00106271923398595</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.24148519062371</v>
+        <v>1.2534205</v>
       </c>
       <c r="H33">
-        <v>1.24148519062371</v>
+        <v>2.506841</v>
       </c>
       <c r="I33">
-        <v>0.02946307129022649</v>
+        <v>0.02920104711710928</v>
       </c>
       <c r="J33">
-        <v>0.02946307129022649</v>
+        <v>0.01989016425961769</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>8.259452254344691</v>
+        <v>8.882901</v>
       </c>
       <c r="N33">
-        <v>8.259452254344691</v>
+        <v>26.648703</v>
       </c>
       <c r="O33">
-        <v>0.03442473959498633</v>
+        <v>0.03665659681347307</v>
       </c>
       <c r="P33">
-        <v>0.03442473959498633</v>
+        <v>0.03788753611638105</v>
       </c>
       <c r="Q33">
-        <v>10.25398765643255</v>
+        <v>11.1340102128705</v>
       </c>
       <c r="R33">
-        <v>10.25398765643255</v>
+        <v>66.804061277223</v>
       </c>
       <c r="S33">
-        <v>0.001014258556834565</v>
+        <v>0.001070411010703105</v>
       </c>
       <c r="T33">
-        <v>0.001014258556834565</v>
+        <v>0.0007535893167470168</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.24148519062371</v>
+        <v>1.2534205</v>
       </c>
       <c r="H34">
-        <v>1.24148519062371</v>
+        <v>2.506841</v>
       </c>
       <c r="I34">
-        <v>0.02946307129022649</v>
+        <v>0.02920104711710928</v>
       </c>
       <c r="J34">
-        <v>0.02946307129022649</v>
+        <v>0.01989016425961769</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>97.2063925923875</v>
+        <v>97.48795299999999</v>
       </c>
       <c r="N34">
-        <v>97.2063925923875</v>
+        <v>292.463859</v>
       </c>
       <c r="O34">
-        <v>0.4051485072997066</v>
+        <v>0.4022983693381038</v>
       </c>
       <c r="P34">
-        <v>0.4051485072997066</v>
+        <v>0.4158076669096681</v>
       </c>
       <c r="Q34">
-        <v>120.6802968374034</v>
+        <v>122.1933987932365</v>
       </c>
       <c r="R34">
-        <v>120.6802968374034</v>
+        <v>733.1603927594189</v>
       </c>
       <c r="S34">
-        <v>0.0119369193537001</v>
+        <v>0.0117475336381782</v>
       </c>
       <c r="T34">
-        <v>0.0119369193537001</v>
+        <v>0.008270482795241698</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.24148519062371</v>
+        <v>1.2534205</v>
       </c>
       <c r="H35">
-        <v>1.24148519062371</v>
+        <v>2.506841</v>
       </c>
       <c r="I35">
-        <v>0.02946307129022649</v>
+        <v>0.02920104711710928</v>
       </c>
       <c r="J35">
-        <v>0.02946307129022649</v>
+        <v>0.01989016425961769</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>97.9826461691168</v>
+        <v>98.89626533333335</v>
       </c>
       <c r="N35">
-        <v>97.9826461691168</v>
+        <v>296.688796</v>
       </c>
       <c r="O35">
-        <v>0.4083838704225488</v>
+        <v>0.4081099772115274</v>
       </c>
       <c r="P35">
-        <v>0.4083838704225488</v>
+        <v>0.4218144302848664</v>
       </c>
       <c r="Q35">
-        <v>121.6440041570815</v>
+        <v>123.9586063422393</v>
       </c>
       <c r="R35">
-        <v>121.6440041570815</v>
+        <v>743.7516380534361</v>
       </c>
       <c r="S35">
-        <v>0.01203224308803817</v>
+        <v>0.01191723867351621</v>
       </c>
       <c r="T35">
-        <v>0.01203224308803817</v>
+        <v>0.008389958305443049</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.24148519062371</v>
+        <v>1.2534205</v>
       </c>
       <c r="H36">
-        <v>1.24148519062371</v>
+        <v>2.506841</v>
       </c>
       <c r="I36">
-        <v>0.02946307129022649</v>
+        <v>0.02920104711710928</v>
       </c>
       <c r="J36">
-        <v>0.02946307129022649</v>
+        <v>0.01989016425961769</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>13.2106180040023</v>
+        <v>13.441221</v>
       </c>
       <c r="N36">
-        <v>13.2106180040023</v>
+        <v>40.323663</v>
       </c>
       <c r="O36">
-        <v>0.05506080435750386</v>
+        <v>0.05546717439244084</v>
       </c>
       <c r="P36">
-        <v>0.05506080435750386</v>
+        <v>0.05732977842326053</v>
       </c>
       <c r="Q36">
-        <v>16.40078661095581</v>
+        <v>16.8475019464305</v>
       </c>
       <c r="R36">
-        <v>16.40078661095581</v>
+        <v>101.085011678583</v>
       </c>
       <c r="S36">
-        <v>0.001622260404082349</v>
+        <v>0.001619699572886583</v>
       </c>
       <c r="T36">
-        <v>0.001622260404082349</v>
+        <v>0.001140298709806138</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.24148519062371</v>
+        <v>1.2534205</v>
       </c>
       <c r="H37">
-        <v>1.24148519062371</v>
+        <v>2.506841</v>
       </c>
       <c r="I37">
-        <v>0.02946307129022649</v>
+        <v>0.02920104711710928</v>
       </c>
       <c r="J37">
-        <v>0.02946307129022649</v>
+        <v>0.01989016425961769</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.7917391161692</v>
+        <v>4.8290125</v>
       </c>
       <c r="N37">
-        <v>4.7917391161692</v>
+        <v>9.658025</v>
       </c>
       <c r="O37">
-        <v>0.0199715872435081</v>
+        <v>0.01992762997355499</v>
       </c>
       <c r="P37">
-        <v>0.0199715872435081</v>
+        <v>0.01373120376629253</v>
       </c>
       <c r="Q37">
-        <v>5.948873150056408</v>
+        <v>6.05278326225625</v>
       </c>
       <c r="R37">
-        <v>5.948873150056408</v>
+        <v>24.211133049025</v>
       </c>
       <c r="S37">
-        <v>0.000588424298734457</v>
+        <v>0.0005819076617900985</v>
       </c>
       <c r="T37">
-        <v>0.000588424298734457</v>
+        <v>0.0002731158983938396</v>
       </c>
     </row>
   </sheetData>
